--- a/data/trans_bre/P54_A_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_4_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,55%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 7,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 0,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,85; -0,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,1; 50,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,62; 49,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,92; -0,34</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>242,14%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 8,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,59; 0,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 5,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,76; 60,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,74; 36,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,4; 688,47</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,53%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-8,79; 14,78</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-27,58; 0,9</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 3,23</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-36,18; 119,78</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,91; 288,51</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,03%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 7,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,16; -0,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 1,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,46; 46,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,92; -8,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,81; 77,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_4_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,16</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,09</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>17,44%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-26,15%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-43,55%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.162117969865366</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.034706242558974</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.313081095513301</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1744487028669815</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.3388024850215974</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.4601477791618985</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 7,86</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,39; 0,89</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; -0,02</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-11,1; 50,16</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-64,62; 49,67</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-71,92; -0,34</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.332533612016471</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.285104551553028</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.151847631656937</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1109808520378387</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.6936192889036527</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.7317651629058275</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.861865303376879</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.634113235639982</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.1801617220530139</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.5016011001740268</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.3819757310471191</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>-0.04963578030626525</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,7</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,28</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>22,49%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-39,49%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>242,14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,17; 8,54</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,59; 0,78</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 5,37</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,76; 60,01</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-78,74; 36,06</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>40,4; 688,47</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.698096240910295</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.238100126155907</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.259761906469461</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.2249331797716102</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.3308462628149578</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.457299622912299</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,03</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,45</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>27,78%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-76,23%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-15,53%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.170387921923495</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.464597689920394</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.282038199580283</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.06760131346663313</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.755951402448523</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.4480048615096315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,79; 14,78</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-27,58; 0,9</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,39; 3,23</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-36,18; 119,78</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-81,91; 288,51</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.537322023155024</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.197193204911806</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.371157210984361</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.6001114378546496</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.6085321944650202</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>7.059735243767381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +775,157 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,62</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>20,75%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-43,52%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,03%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>5.028815830186245</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.049027070727411</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.622692902435791</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.2778163423768056</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.7508907721103006</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1802094263908528</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 7,1</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,16; -0,3</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,3; 1,81</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,46; 46,76</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-72,92; -8,42</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-30,81; 77,12</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.785869722855049</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-21.62377964301063</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.480931088864208</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.3618239326708413</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.8186854125780718</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.77936147885557</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.198372308436978</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.071395734540661</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.197757783413177</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>3.007890268295365</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.616811132701705</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.603436192949158</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.104568198066874</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.2075444576403861</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.4251644838306823</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.03126637310079362</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.473034991279823</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.128879281751868</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.464517780929842</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.02461596400421658</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6963510085356944</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3315050441069894</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.102772985672404</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.04446665054035922</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.727109724126887</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.4676010860255171</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.02570563150160246</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.700914536787016</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -921,12 +934,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
